--- a/数据整理/stocks/A股/上证主板/603396-金辰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603396-金辰股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1423,4 +1424,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603396-金辰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603396-金辰股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1432,7 +1433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1443,17 +1444,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1463,14 +1484,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.78</v>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1479,13 +1522,233 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290014</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信现代服务业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603396-金辰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603396-金辰股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1679,7 +1680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,17 +1691,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1710,14 +1731,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1726,14 +1821,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4">
@@ -1742,13 +1837,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603396-金辰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603396-金辰股份.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -549,6 +566,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3901</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016556</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -642,7 +1019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -888,7 +1265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1432,7 +1809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603396-金辰股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603396-金辰股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -566,6 +583,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3737</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015696</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银绿色能源混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -925,7 +1188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1019,7 +1282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1265,7 +1528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1809,7 +2072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
